--- a/biology/Médecine/Brossette_interdentaire/Brossette_interdentaire.xlsx
+++ b/biology/Médecine/Brossette_interdentaire/Brossette_interdentaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une brossette interdentaire est une sorte de toute petite brosse à dents, dont le rôle est de nettoyer l'espace entre deux dents (zone inter-proximale) tout comme le fil dentaire, si l'interstice entre deux dents est insuffisant au passage de la brossette.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces brossettes sont utiles à une bonne hygiène bucco-dentaire. La brosse à dents ne peut pas passer au niveau de la zone entre les dents. Cette zone est donc exposée aux pathologies habituelles : caries et maladies parodontales (gingivites et parodontites).
 Il existe des brossettes de différentes tailles et formes (coniques ou cylindriques). Elles peuvent ainsi être adaptées à chaque patient.
@@ -544,9 +558,11 @@
           <t>Codage ISO des brossettes interdentaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La norme ISO 16409 classe les brossettes interdentaires comme suit[1] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La norme ISO 16409 classe les brossettes interdentaires comme suit : 
 </t>
         </is>
       </c>
